--- a/Files/Vaccine_December 1, 2016.xlsx
+++ b/Files/Vaccine_December 1, 2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="320">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">$72.73</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">$87.48</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">$30.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -218,8 +218,7 @@
     <t xml:space="preserve">$95.23</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -234,8 +233,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -253,7 +251,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -280,7 +278,7 @@
     <t xml:space="preserve">$15.75</t>
   </si>
   <si>
-    <t xml:space="preserve">HIBMENCY [3]</t>
+    <t xml:space="preserve">HIBMENCY </t>
   </si>
   <si>
     <t xml:space="preserve">MENHIBRIX</t>
@@ -307,7 +305,7 @@
     <t xml:space="preserve">$10.26</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -322,7 +320,7 @@
     <t xml:space="preserve">$193.63</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -361,7 +359,7 @@
     <t xml:space="preserve">1 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -388,7 +386,7 @@
     <t xml:space="preserve">$119.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -403,7 +401,7 @@
     <t xml:space="preserve">$67.03</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -418,8 +416,7 @@
     <t xml:space="preserve">$191.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -449,7 +446,7 @@
     <t xml:space="preserve">$86.71</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -473,7 +470,7 @@
     <t xml:space="preserve">25 pack - 1 dose tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -488,7 +485,7 @@
     <t xml:space="preserve">$109.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -524,7 +521,7 @@
     <t xml:space="preserve">200-2016-89084</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -557,7 +554,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -572,7 +569,7 @@
     <t xml:space="preserve">$115.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -596,7 +593,7 @@
     <t xml:space="preserve">$64.21</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -614,7 +611,7 @@
     <t xml:space="preserve">$63.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$54.66</t>
@@ -623,10 +620,7 @@
     <t xml:space="preserve">$92.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recombivax HB</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4995-41</t>
@@ -668,13 +662,13 @@
     <t xml:space="preserve">$28.55</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$119.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose vials</t>
@@ -683,7 +677,7 @@
     <t xml:space="preserve">$40.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate </t>
   </si>
   <si>
     <t xml:space="preserve">$72.45</t>
@@ -713,8 +707,7 @@
     <t xml:space="preserve">$117.49</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Adult)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -735,13 +728,13 @@
     <t xml:space="preserve">10 pack - single dose vial</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids[3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">$12.271</t>
   </si>
   <si>
-    <t xml:space="preserve">[6]</t>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">$12.464</t>
@@ -765,7 +758,7 @@
     <t xml:space="preserve">$25.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$66.36</t>
@@ -786,12 +779,10 @@
     <t xml:space="preserve">$196.91</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0625-15</t>
@@ -806,14 +797,10 @@
     <t xml:space="preserve">200-2016-88487</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0516-25</t>
@@ -825,13 +812,10 @@
     <t xml:space="preserve">$23.167</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0416-50</t>
@@ -852,9 +836,7 @@
     <t xml:space="preserve">$18.487</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Quadrivalent Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0905-52</t>
@@ -869,8 +851,7 @@
     <t xml:space="preserve">200-2016-88484</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0903-11</t>
@@ -885,8 +866,7 @@
     <t xml:space="preserve">19515-0908-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -907,19 +887,16 @@
     <t xml:space="preserve">200-2016-88486</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0016-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$7.99</t>
@@ -958,9 +935,7 @@
     <t xml:space="preserve">200-2016-88482</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Quadrivalent No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$13.961</t>
@@ -975,17 +950,13 @@
     <t xml:space="preserve">200-2016-88479</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval Quadrivalent</t>
-  </si>
-  <si>
     <t xml:space="preserve">$11.76</t>
   </si>
   <si>
     <t xml:space="preserve">200-2016-88478</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flublok No Preservative</t>
@@ -2578,19 +2549,19 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>202</v>
-      </c>
-      <c r="C7" t="s">
-        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
         <v>204</v>
-      </c>
-      <c r="F7" t="s">
-        <v>205</v>
       </c>
       <c r="G7" s="1">
         <v>42916</v>
@@ -2607,19 +2578,19 @@
         <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
         <v>206</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>207</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>208</v>
-      </c>
-      <c r="F8" t="s">
-        <v>209</v>
       </c>
       <c r="G8" s="1">
         <v>42916</v>
@@ -2636,19 +2607,19 @@
         <v>201</v>
       </c>
       <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
         <v>210</v>
-      </c>
-      <c r="C9" t="s">
-        <v>211</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" t="s">
-        <v>213</v>
       </c>
       <c r="G9" s="1">
         <v>42916</v>
@@ -2665,19 +2636,19 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" s="1">
         <v>42916</v>
@@ -2691,7 +2662,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
@@ -2703,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -2720,7 +2691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>124</v>
@@ -2729,10 +2700,10 @@
         <v>125</v>
       </c>
       <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
         <v>219</v>
-      </c>
-      <c r="E12" t="s">
-        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>127</v>
@@ -2749,7 +2720,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -2761,10 +2732,10 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" t="s">
-        <v>223</v>
       </c>
       <c r="G13" s="1">
         <v>42916</v>
@@ -2778,7 +2749,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
@@ -2790,7 +2761,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
         <v>118</v>
@@ -2799,10 +2770,10 @@
         <v>42916</v>
       </c>
       <c r="H14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" t="s">
         <v>225</v>
-      </c>
-      <c r="I14" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15">
@@ -2819,7 +2790,7 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
         <v>105</v>
@@ -2831,7 +2802,7 @@
         <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -2848,7 +2819,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F16" t="s">
         <v>111</v>
@@ -2877,7 +2848,7 @@
         <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
         <v>111</v>
@@ -2894,19 +2865,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
         <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>232</v>
       </c>
       <c r="C18" t="s">
         <v>135</v>
       </c>
       <c r="D18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" t="s">
         <v>233</v>
-      </c>
-      <c r="E18" t="s">
-        <v>234</v>
       </c>
       <c r="F18" t="s">
         <v>137</v>
@@ -2918,7 +2889,7 @@
         <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
@@ -2929,13 +2900,13 @@
         <v>139</v>
       </c>
       <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" t="s">
         <v>235</v>
-      </c>
-      <c r="D19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" t="s">
-        <v>236</v>
       </c>
       <c r="F19" t="s">
         <v>142</v>
@@ -2961,10 +2932,10 @@
         <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2981,7 +2952,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
         <v>157</v>
@@ -2993,24 +2964,24 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
         <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
         <v>157</v>
@@ -3022,19 +2993,19 @@
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
         <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
@@ -3063,7 +3034,7 @@
         <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
@@ -3080,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
         <v>176</v>
@@ -3089,10 +3060,10 @@
         <v>42916</v>
       </c>
       <c r="H24" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" t="s">
         <v>225</v>
-      </c>
-      <c r="I24" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="25">
@@ -3109,7 +3080,7 @@
         <v>178</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F25" t="s">
         <v>176</v>
@@ -3118,10 +3089,10 @@
         <v>42916</v>
       </c>
       <c r="H25" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" t="s">
         <v>225</v>
-      </c>
-      <c r="I25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -3138,10 +3109,10 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" t="s">
         <v>245</v>
-      </c>
-      <c r="F26" t="s">
-        <v>246</v>
       </c>
       <c r="G26" s="1">
         <v>42916</v>
@@ -3167,10 +3138,10 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G27" s="1">
         <v>42916</v>
@@ -3184,7 +3155,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
         <v>180</v>
@@ -3196,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
         <v>183</v>
@@ -3213,22 +3184,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
         <v>250</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>251</v>
-      </c>
-      <c r="C29" t="s">
-        <v>252</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" t="s">
         <v>253</v>
-      </c>
-      <c r="F29" t="s">
-        <v>254</v>
       </c>
       <c r="G29" s="1">
         <v>42916</v>
@@ -3287,22 +3258,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
         <v>255</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>256</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
         <v>258</v>
-      </c>
-      <c r="F2" t="s">
-        <v>259</v>
       </c>
       <c r="G2" s="1">
         <v>42794</v>
@@ -3311,27 +3282,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
         <v>261</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>262</v>
-      </c>
-      <c r="C3" t="s">
-        <v>263</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" t="s">
         <v>264</v>
-      </c>
-      <c r="F3" t="s">
-        <v>265</v>
       </c>
       <c r="G3" s="1">
         <v>42794</v>
@@ -3340,27 +3311,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>267</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" t="s">
         <v>269</v>
-      </c>
-      <c r="F4" t="s">
-        <v>270</v>
       </c>
       <c r="G4" s="1">
         <v>42794</v>
@@ -3369,27 +3340,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
         <v>266</v>
       </c>
-      <c r="B5" t="s">
-        <v>267</v>
-      </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" t="s">
         <v>272</v>
-      </c>
-      <c r="F5" t="s">
-        <v>273</v>
       </c>
       <c r="G5" s="1">
         <v>42794</v>
@@ -3398,27 +3369,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
         <v>274</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
         <v>275</v>
       </c>
-      <c r="D6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>276</v>
-      </c>
-      <c r="F6" t="s">
-        <v>277</v>
       </c>
       <c r="G6" s="1">
         <v>42794</v>
@@ -3427,27 +3398,27 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
         <v>279</v>
-      </c>
-      <c r="C7" t="s">
-        <v>280</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" t="s">
         <v>281</v>
-      </c>
-      <c r="F7" t="s">
-        <v>282</v>
       </c>
       <c r="G7" s="1">
         <v>42794</v>
@@ -3456,27 +3427,27 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
         <v>276</v>
-      </c>
-      <c r="F8" t="s">
-        <v>277</v>
       </c>
       <c r="G8" s="1">
         <v>42794</v>
@@ -3485,123 +3456,123 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
         <v>284</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>285</v>
-      </c>
-      <c r="C9" t="s">
-        <v>286</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="E9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" t="s">
         <v>287</v>
-      </c>
-      <c r="F9" t="s">
-        <v>288</v>
       </c>
       <c r="G9" s="1">
         <v>42794</v>
       </c>
       <c r="H9" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" t="s">
         <v>289</v>
-      </c>
-      <c r="I9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
         <v>291</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>292</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>293</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>294</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>295</v>
-      </c>
-      <c r="F10" t="s">
-        <v>296</v>
       </c>
       <c r="G10" s="1">
         <v>42794</v>
       </c>
       <c r="H10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" t="s">
         <v>297</v>
-      </c>
-      <c r="I10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
         <v>299</v>
-      </c>
-      <c r="C11" t="s">
-        <v>300</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" t="s">
         <v>287</v>
-      </c>
-      <c r="F11" t="s">
-        <v>288</v>
       </c>
       <c r="G11" s="1">
         <v>42794</v>
       </c>
       <c r="H11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" t="s">
         <v>297</v>
-      </c>
-      <c r="I11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" t="s">
         <v>301</v>
-      </c>
-      <c r="C12" t="s">
-        <v>302</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" t="s">
         <v>303</v>
-      </c>
-      <c r="F12" t="s">
-        <v>304</v>
       </c>
       <c r="G12" s="1">
         <v>42794</v>
       </c>
       <c r="H12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" t="s">
         <v>289</v>
-      </c>
-      <c r="I12" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3651,22 +3622,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
         <v>255</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>256</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G2" s="1">
         <v>42794</v>
@@ -3675,27 +3646,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="1">
         <v>42794</v>
@@ -3704,27 +3675,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="1">
         <v>42794</v>
@@ -3733,56 +3704,56 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
         <v>284</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>285</v>
-      </c>
-      <c r="C5" t="s">
-        <v>286</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" t="s">
         <v>287</v>
-      </c>
-      <c r="F5" t="s">
-        <v>288</v>
       </c>
       <c r="G5" s="1">
         <v>42794</v>
       </c>
       <c r="H5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
         <v>274</v>
       </c>
-      <c r="C6" t="s">
-        <v>275</v>
-      </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="1">
         <v>42794</v>
@@ -3791,27 +3762,27 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G7" s="1">
         <v>42794</v>
@@ -3820,94 +3791,94 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
         <v>291</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>292</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>293</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>294</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>295</v>
-      </c>
-      <c r="F8" t="s">
-        <v>296</v>
       </c>
       <c r="G8" s="1">
         <v>42794</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
         <v>299</v>
-      </c>
-      <c r="C9" t="s">
-        <v>300</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="E9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" t="s">
         <v>287</v>
-      </c>
-      <c r="F9" t="s">
-        <v>288</v>
       </c>
       <c r="G9" s="1">
         <v>42794</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
         <v>315</v>
-      </c>
-      <c r="B10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" t="s">
-        <v>317</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G10" s="1">
         <v>42794</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
